--- a/LeadCreate.xlsx
+++ b/LeadCreate.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
     <col min="7" max="7" width="38.85546875" customWidth="1"/>
     <col min="8" max="8" width="58.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>

--- a/LeadCreate.xlsx
+++ b/LeadCreate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C20EDF-5FD9-469B-B784-557FAEF2C93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="26130" windowHeight="16890"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -216,13 +217,16 @@
     <t>Salesforce should get logout successfully</t>
   </si>
   <si>
-    <t>Approved</t>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Teststep is misssing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,20 +288,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="TestScenarioID"/>
-    <tableColumn id="2" name="TestCaseID"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Precondition"/>
-    <tableColumn id="5" name="TestData"/>
-    <tableColumn id="6" name="Steps"/>
-    <tableColumn id="7" name="UserAction"/>
-    <tableColumn id="8" name="ExpectedResult"/>
-    <tableColumn id="9" name="Approved/Rejected"/>
-    <tableColumn id="10" name="ReasonToReject"/>
-    <tableColumn id="11" name="IsModified/Added"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Precondition"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TestData"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Steps"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UserAction"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ExpectedResult"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Approved/Rejected"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ReasonToReject"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsModified/Added"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,29 +591,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="8" max="8" width="58.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -666,8 +670,11 @@
       <c r="I2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -678,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>20</v>
       </c>
@@ -689,7 +696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -700,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -711,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>29</v>
       </c>
@@ -722,7 +729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>32</v>
       </c>
@@ -733,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>35</v>
       </c>
@@ -744,7 +751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>38</v>
       </c>
@@ -755,7 +762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>41</v>
       </c>
@@ -766,7 +773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>44</v>
       </c>
@@ -777,7 +784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>47</v>
       </c>
@@ -788,7 +795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>50</v>
       </c>
@@ -799,7 +806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>53</v>
       </c>
@@ -810,7 +817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>56</v>
       </c>
@@ -821,7 +828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>59</v>
       </c>
@@ -832,7 +839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>62</v>
       </c>
